--- a/DSP_H2_2025/Tháng 9/NewEleven_20251008_20251008_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20251008_20251008_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -146,97 +146,130 @@
     <t>B08ZKZ1FJK-Dads - tumblers</t>
   </si>
   <si>
+    <t>B097B9SY89-Dads - tumblers</t>
+  </si>
+  <si>
+    <t>B0CG8N67SJ-Dads - tumblers</t>
+  </si>
+  <si>
     <t>B09XXP5V2W-Retirement - tumblers</t>
   </si>
   <si>
-    <t>B097B9SY89-Dads - tumblers</t>
-  </si>
-  <si>
-    <t>B0CG8N67SJ-Dads - tumblers</t>
-  </si>
-  <si>
     <t>B08ZRWW1W4-Retirement - tumblers</t>
   </si>
   <si>
     <t>B0DH88L44J-Birthday-Wineglass</t>
   </si>
   <si>
+    <t>B0DH7Y6RDX-Birthday-Wineglass</t>
+  </si>
+  <si>
+    <t>B0DH87FYNN-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DM63J16N-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0F18PVLJ1-Retirement-Tumbler</t>
+  </si>
+  <si>
     <t>B0F18CMJ3L-Retirement-WhiskeyGlass</t>
   </si>
   <si>
-    <t>B0F18PVLJ1-Retirement-Tumbler</t>
-  </si>
-  <si>
-    <t>B0DH87FYNN-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0DH7Y6RDX-Birthday-Wineglass</t>
+    <t>B0DHC2C1S4-Birthday-Hat</t>
   </si>
   <si>
     <t>B0D7HMXCSP-Retirement</t>
   </si>
   <si>
-    <t>B0DM63J16N-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0DHC2C1S4-Birthday-Hat</t>
-  </si>
-  <si>
     <t>B0F2T4JDF7-Moms-Cards</t>
   </si>
   <si>
     <t>B0CRVTN11L-Moms-Cf glass</t>
   </si>
   <si>
+    <t>B0CJX4XSXB-Moms - Tumblers</t>
+  </si>
+  <si>
     <t>B097B9H21P-Moms - Tumblers</t>
   </si>
   <si>
+    <t>B0CG8NHNWF-Moms - Tumblers</t>
+  </si>
+  <si>
     <t>B0D1K731RT-Moms-Cf glass</t>
   </si>
   <si>
-    <t>B0CJX4XSXB-Moms - Tumblers</t>
-  </si>
-  <si>
-    <t>B0CG8NHNWF-Moms - Tumblers</t>
-  </si>
-  <si>
     <t>B0DXVPDSJK-Moms-REC</t>
   </si>
   <si>
+    <t>B0DH83T7MF-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0F7LJYVN5-Dads-Card</t>
+  </si>
+  <si>
+    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DRT3MK34-Engagement-Ornament</t>
+  </si>
+  <si>
+    <t>B0CY4MC1GJ-FatherDayTumbler</t>
+  </si>
+  <si>
+    <t>B0DJYD117Z-Birthday Ornaments</t>
+  </si>
+  <si>
+    <t>B0DVSKBSWN-Dads-BIble Jar</t>
+  </si>
+  <si>
+    <t>B0DHC932W2-Birthday-Hat</t>
+  </si>
+  <si>
     <t>B0BHWDNYVL-Moms - Cf glass</t>
   </si>
   <si>
-    <t>B0DJYD117Z-Birthday Ornaments</t>
+    <t>B0DHCGTL3R-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DCJM56W3-Moms-Cf glass</t>
+  </si>
+  <si>
+    <t>B0BRB6NJCT-Retirement -Cf glass</t>
+  </si>
+  <si>
+    <t>B09ZYCD6GX-Retirement</t>
+  </si>
+  <si>
+    <t>B0DH7X6R1J-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DM61B4F2-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DGGDN9WS-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B08ZYGT8SH-Men,Dads-Apron</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>B0DH86X93V-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0F13MKH7X-Retirement-Wine Glass</t>
   </si>
   <si>
     <t>B0DH7PQ1RX-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0F13MKH7X-Retirement-Wine Glass</t>
-  </si>
-  <si>
-    <t>B0DM61B4F2-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0DCJM56W3-Moms-Cf glass</t>
-  </si>
-  <si>
-    <t>B0BRB6NJCT-Retirement -Cf glass</t>
-  </si>
-  <si>
-    <t>B0F7LJYVN5-Dads-Card</t>
-  </si>
-  <si>
-    <t>B0DRT3MK34-Engagement-Ornament</t>
-  </si>
-  <si>
-    <t>B0DHC932W2-Birthday-Hat</t>
+    <t>B0CYPT8HM7-Birthday-Cf glass</t>
   </si>
   <si>
     <t>B0DPM5JXP70-HouseWarming-Ornaments</t>
-  </si>
-  <si>
-    <t>B09ZYCD6GX-Retirement</t>
   </si>
   <si>
     <t>Total</t>
@@ -1435,7 +1468,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="37" name="" descr=""/>
@@ -1445,6 +1478,336 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1751,10 +2114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL38"/>
+      <selection activeCell="A1" sqref="A1:AL49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1921,112 +2284,112 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>7.92</v>
+        <v>10.53</v>
       </c>
       <c r="D2" s="7">
-        <v>83.69</v>
+        <v>156.59</v>
       </c>
       <c r="E2" s="7">
         <v>0.25</v>
       </c>
       <c r="F2" s="7">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="G2" s="6">
-        <v>10.57</v>
+        <v>14.87</v>
       </c>
       <c r="H2" s="8">
-        <v>0.8333</v>
+        <v>0.9167</v>
       </c>
       <c r="I2" s="8">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="J2" s="8">
-        <v>0.0017</v>
+        <v>0.0047</v>
       </c>
       <c r="K2" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L2" s="7">
-        <v>1.32</v>
+        <v>0.88</v>
       </c>
       <c r="M2" s="6">
-        <v>5.42</v>
+        <v>8.33</v>
       </c>
       <c r="N2" s="8">
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>31968</v>
+        <v>42114</v>
       </c>
       <c r="P2" s="9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="9">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="R2" s="9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="S2" s="9">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9">
+        <v>13</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="W2" s="9">
+        <v>90</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0.0021</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0.0001</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>2.63</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>87.68</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>141.61</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>13.45</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="AI2" s="9">
         <v>6</v>
       </c>
-      <c r="T2" s="9">
-        <v>7</v>
-      </c>
-      <c r="U2" s="9">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="9">
-        <v>26</v>
-      </c>
-      <c r="X2" s="8">
-        <v>0.0008</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>7.92</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>7.92</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>42.94</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>68.71</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>27.96</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>8.68</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>3.53</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>3</v>
-      </c>
       <c r="AJ2" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="AK2" s="8">
         <v>0.0001</v>
       </c>
       <c r="AL2" s="7">
-        <v>2.64</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="90">
@@ -2035,16 +2398,16 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>6.06</v>
+        <v>7.6</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="F3" s="7">
-        <v>1.52</v>
+        <v>0.32</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2056,10 +2419,10 @@
         <v>0.0027</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0012</v>
+        <v>0.0059</v>
       </c>
       <c r="K3" s="8">
-        <v>0.0003</v>
+        <v>0.0007</v>
       </c>
       <c r="L3" s="7">
         <v>0</v>
@@ -2071,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>3309</v>
+        <v>4058</v>
       </c>
       <c r="P3" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="9">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="9">
         <v>0</v>
@@ -2092,28 +2455,28 @@
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="W3" s="9">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="X3" s="8">
-        <v>0.0006</v>
+        <v>0.0052</v>
       </c>
       <c r="Y3" s="7">
-        <v>3.03</v>
+        <v>0.36</v>
       </c>
       <c r="Z3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="8">
-        <v>0.0003</v>
+        <v>0.0007</v>
       </c>
       <c r="AB3" s="7">
-        <v>6.06</v>
+        <v>2.53</v>
       </c>
       <c r="AC3" s="7">
-        <v>6.06</v>
+        <v>2.53</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
@@ -2149,16 +2512,16 @@
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <v>5.63</v>
+        <v>6.89</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="F4" s="7">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2167,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0.0049</v>
+        <v>0.0041</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0132</v>
+        <v>0.0149</v>
       </c>
       <c r="K4" s="8">
-        <v>0.0004</v>
+        <v>0.0015</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -2185,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>2657</v>
+        <v>3433</v>
       </c>
       <c r="P4" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="9">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="R4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S4" s="9">
         <v>0</v>
@@ -2206,28 +2569,28 @@
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="W4" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X4" s="8">
+        <v>0.0044</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="8">
         <v>0.0015</v>
       </c>
-      <c r="Y4" s="7">
-        <v>1.41</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0.0004</v>
-      </c>
       <c r="AB4" s="7">
-        <v>5.63</v>
+        <v>1.38</v>
       </c>
       <c r="AC4" s="7">
-        <v>5.63</v>
+        <v>1.38</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
@@ -2263,112 +2626,112 @@
         <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>5.45</v>
+        <v>6.69</v>
       </c>
       <c r="D5" s="7">
-        <v>53.94</v>
+        <v>66.72</v>
       </c>
       <c r="E5" s="7">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="F5" s="7">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="G5" s="6">
-        <v>9.9</v>
+        <v>9.97</v>
       </c>
       <c r="H5" s="8">
-        <v>0.6667</v>
+        <v>0.75</v>
       </c>
       <c r="I5" s="8">
-        <v>0.0034</v>
+        <v>0.0035</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0046</v>
+        <v>0.0126</v>
       </c>
       <c r="K5" s="8">
-        <v>0.0004</v>
+        <v>0.0023</v>
       </c>
       <c r="L5" s="7">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="M5" s="6">
-        <v>6.78</v>
+        <v>7.43</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>2631</v>
+        <v>3418</v>
       </c>
       <c r="P5" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="R5" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S5" s="9">
+        <v>4</v>
+      </c>
+      <c r="T5" s="9">
+        <v>4</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0.56</v>
+      </c>
+      <c r="W5" s="9">
+        <v>31</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0.0091</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0.0015</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>1.34</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>49.74</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>45.74</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>28.76</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>6.84</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="AI5" s="9">
         <v>3</v>
       </c>
-      <c r="T5" s="9">
-        <v>3</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="W5" s="9">
-        <v>10</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0.0038</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0.0004</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>5.45</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>5.45</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>36.96</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>32.96</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>15.98</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>6.05</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>2.93</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>2</v>
-      </c>
       <c r="AJ5" s="8">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="AK5" s="8">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="AL5" s="7">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="90">
@@ -2377,52 +2740,52 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>5.26</v>
+        <v>6.51</v>
       </c>
       <c r="D6" s="7">
         <v>33.56</v>
       </c>
       <c r="E6" s="7">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="F6" s="7">
-        <v>1.32</v>
+        <v>0.34</v>
       </c>
       <c r="G6" s="6">
-        <v>6.38</v>
+        <v>5.16</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6" s="8">
-        <v>0.0053</v>
+        <v>0.0056</v>
       </c>
       <c r="J6" s="8">
-        <v>0.0016</v>
+        <v>0.0059</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L6" s="7">
-        <v>2.63</v>
+        <v>3.26</v>
       </c>
       <c r="M6" s="6">
-        <v>6.38</v>
+        <v>5.16</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>2451</v>
+        <v>3226</v>
       </c>
       <c r="P6" s="9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="9">
+        <v>19</v>
+      </c>
+      <c r="R6" s="9">
         <v>4</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
       </c>
       <c r="S6" s="9">
         <v>2</v>
@@ -2434,28 +2797,28 @@
         <v>0</v>
       </c>
       <c r="V6" s="7">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="W6" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X6" s="8">
-        <v>0.0016</v>
+        <v>0.0046</v>
       </c>
       <c r="Y6" s="7">
-        <v>1.32</v>
+        <v>0.43</v>
       </c>
       <c r="Z6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AB6" s="7">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC6" s="7">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AD6" s="7">
         <v>33.56</v>
@@ -2467,22 +2830,22 @@
         <v>33.56</v>
       </c>
       <c r="AG6" s="6">
-        <v>6.38</v>
+        <v>5.16</v>
       </c>
       <c r="AH6" s="6">
-        <v>6.38</v>
+        <v>5.16</v>
       </c>
       <c r="AI6" s="9">
         <v>2</v>
       </c>
       <c r="AJ6" s="8">
-        <v>0.0008</v>
+        <v>0.0006</v>
       </c>
       <c r="AK6" s="8">
-        <v>0.0008</v>
+        <v>0.0006</v>
       </c>
       <c r="AL6" s="7">
-        <v>2.63</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="90">
@@ -2491,112 +2854,112 @@
         <v>43</v>
       </c>
       <c r="C7" s="7">
-        <v>5.23</v>
+        <v>6.48</v>
       </c>
       <c r="D7" s="7">
-        <v>31.96</v>
+        <v>48.94</v>
       </c>
       <c r="E7" s="7">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="F7" s="7">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="G7" s="6">
-        <v>6.11</v>
+        <v>7.55</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="8">
-        <v>0.0069</v>
+        <v>0.0063</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0201</v>
+        <v>0.0076</v>
       </c>
       <c r="K7" s="8">
-        <v>0.0029</v>
+        <v>0.0016</v>
       </c>
       <c r="L7" s="7">
-        <v>2.62</v>
+        <v>2.16</v>
       </c>
       <c r="M7" s="6">
-        <v>3.51</v>
+        <v>7.55</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>1740</v>
+        <v>3166</v>
       </c>
       <c r="P7" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R7" s="9">
         <v>5</v>
       </c>
       <c r="S7" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="7">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="W7" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X7" s="8">
-        <v>0.0115</v>
+        <v>0.0038</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="Z7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0.0016</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>48.94</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>48.94</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>48.94</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>7.55</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>7.55</v>
+      </c>
+      <c r="AI7" s="9">
         <v>3</v>
       </c>
-      <c r="AA7" s="8">
-        <v>0.0017</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>1.74</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>18.38</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>31.96</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>18.38</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>6.11</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>3.51</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>1</v>
-      </c>
       <c r="AJ7" s="8">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
       <c r="AK7" s="8">
-        <v>0.0006</v>
+        <v>0.0009</v>
       </c>
       <c r="AL7" s="7">
-        <v>5.23</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="90">
@@ -2605,112 +2968,112 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>5.23</v>
+        <v>6.47</v>
       </c>
       <c r="D8" s="7">
-        <v>48.94</v>
+        <v>31.16</v>
       </c>
       <c r="E8" s="7">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="F8" s="7">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="6">
-        <v>9.36</v>
+        <v>4.82</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0062</v>
+        <v>0.0074</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0062</v>
+        <v>0.0049</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L8" s="7">
-        <v>1.74</v>
+        <v>3.23</v>
       </c>
       <c r="M8" s="6">
-        <v>9.36</v>
+        <v>4.82</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>2426</v>
+        <v>3261</v>
       </c>
       <c r="P8" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8" s="9">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9">
+        <v>2</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="W8" s="9">
+        <v>14</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.0043</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="Z8" s="9">
         <v>3</v>
       </c>
-      <c r="T8" s="9">
-        <v>3</v>
-      </c>
-      <c r="U8" s="9">
-        <v>1</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="W8" s="9">
-        <v>4</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0.0016</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>1.31</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
       <c r="AA8" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AB8" s="7">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC8" s="7">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AD8" s="7">
-        <v>48.94</v>
+        <v>31.16</v>
       </c>
       <c r="AE8" s="7">
-        <v>48.94</v>
+        <v>31.16</v>
       </c>
       <c r="AF8" s="7">
-        <v>48.94</v>
+        <v>31.16</v>
       </c>
       <c r="AG8" s="6">
-        <v>9.36</v>
+        <v>4.82</v>
       </c>
       <c r="AH8" s="6">
-        <v>9.36</v>
+        <v>4.82</v>
       </c>
       <c r="AI8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="8">
-        <v>0.0012</v>
+        <v>0.0006</v>
       </c>
       <c r="AK8" s="8">
-        <v>0.0012</v>
+        <v>0.0006</v>
       </c>
       <c r="AL8" s="7">
-        <v>1.74</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="90">
@@ -2719,112 +3082,112 @@
         <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>5.2</v>
+        <v>6.33</v>
       </c>
       <c r="D9" s="7">
-        <v>18.38</v>
+        <v>62.92</v>
       </c>
       <c r="E9" s="7">
-        <v>2.09</v>
+        <v>2.96</v>
       </c>
       <c r="F9" s="7">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="6">
-        <v>3.53</v>
+        <v>9.94</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0092</v>
+        <v>0.0061</v>
       </c>
       <c r="J9" s="8">
-        <v>0.004</v>
+        <v>0.03</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="L9" s="7">
-        <v>5.2</v>
+        <v>1.58</v>
       </c>
       <c r="M9" s="6">
-        <v>3.53</v>
+        <v>7.79</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>2490</v>
+        <v>2136</v>
       </c>
       <c r="P9" s="9">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="9">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S9" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U9" s="9">
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="W9" s="9">
+        <v>45</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0.0211</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="Z9" s="9">
         <v>9</v>
       </c>
-      <c r="X9" s="8">
-        <v>0.0036</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="AB9" s="7">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AC9" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" s="7">
-        <v>18.38</v>
+        <v>49.34</v>
       </c>
       <c r="AE9" s="7">
-        <v>18.38</v>
+        <v>62.92</v>
       </c>
       <c r="AF9" s="7">
-        <v>18.38</v>
+        <v>49.34</v>
       </c>
       <c r="AG9" s="6">
-        <v>3.53</v>
+        <v>9.94</v>
       </c>
       <c r="AH9" s="6">
-        <v>3.53</v>
+        <v>7.79</v>
       </c>
       <c r="AI9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="8">
-        <v>0.0004</v>
+        <v>0.0019</v>
       </c>
       <c r="AK9" s="8">
-        <v>0.0004</v>
+        <v>0.0014</v>
       </c>
       <c r="AL9" s="7">
-        <v>5.2</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="90">
@@ -2833,112 +3196,112 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>5.18</v>
+        <v>6.21</v>
       </c>
       <c r="D10" s="7">
-        <v>67.77</v>
+        <v>104.53</v>
       </c>
       <c r="E10" s="7">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="F10" s="7">
-        <v>0.86</v>
+        <v>0.26</v>
       </c>
       <c r="G10" s="6">
-        <v>13.08</v>
+        <v>16.83</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0039</v>
+        <v>0.0046</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0034</v>
+        <v>0.0111</v>
       </c>
       <c r="K10" s="8">
-        <v>0.0011</v>
+        <v>0.0018</v>
       </c>
       <c r="L10" s="7">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="M10" s="6">
-        <v>13.08</v>
+        <v>16.83</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>1791</v>
+        <v>2170</v>
       </c>
       <c r="P10" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="9">
+        <v>24</v>
+      </c>
+      <c r="R10" s="9">
+        <v>4</v>
+      </c>
+      <c r="S10" s="9">
         <v>6</v>
       </c>
-      <c r="R10" s="9">
-        <v>2</v>
-      </c>
-      <c r="S10" s="9">
-        <v>4</v>
-      </c>
       <c r="T10" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U10" s="9">
         <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="W10" s="9">
+        <v>24</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.0111</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0.0014</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>2.07</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>104.53</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>104.53</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>104.53</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>16.83</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>16.83</v>
+      </c>
+      <c r="AI10" s="9">
         <v>6</v>
       </c>
-      <c r="X10" s="8">
-        <v>0.0034</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0.0011</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>2.59</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>2.59</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>67.77</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>67.77</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>67.77</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>13.08</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>13.08</v>
-      </c>
-      <c r="AI10" s="9">
-        <v>4</v>
-      </c>
       <c r="AJ10" s="8">
-        <v>0.0022</v>
+        <v>0.0028</v>
       </c>
       <c r="AK10" s="8">
-        <v>0.0022</v>
+        <v>0.0028</v>
       </c>
       <c r="AL10" s="7">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="90">
@@ -2947,19 +3310,19 @@
         <v>47</v>
       </c>
       <c r="C11" s="7">
-        <v>5.18</v>
+        <v>6.1</v>
       </c>
       <c r="D11" s="7">
-        <v>152.01</v>
+        <v>170.39</v>
       </c>
       <c r="E11" s="7">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="F11" s="7">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="G11" s="6">
-        <v>29.35</v>
+        <v>27.93</v>
       </c>
       <c r="H11" s="8">
         <v>1</v>
@@ -2968,91 +3331,91 @@
         <v>0.0055</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0061</v>
+        <v>0.0187</v>
       </c>
       <c r="K11" s="8">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="L11" s="7">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="M11" s="6">
-        <v>25.8</v>
+        <v>24.92</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>1805</v>
+        <v>2196</v>
       </c>
       <c r="P11" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>41</v>
+      </c>
+      <c r="R11" s="9">
+        <v>7</v>
+      </c>
+      <c r="S11" s="9">
+        <v>9</v>
+      </c>
+      <c r="T11" s="9">
         <v>10</v>
       </c>
-      <c r="Q11" s="9">
-        <v>11</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="W11" s="9">
+        <v>39</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0.0178</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0.0023</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>152.01</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>170.39</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>152.01</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>27.93</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>24.92</v>
+      </c>
+      <c r="AI11" s="9">
         <v>8</v>
       </c>
-      <c r="T11" s="9">
-        <v>9</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="W11" s="9">
-        <v>11</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0.0061</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>133.63</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>152.01</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>133.63</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>29.35</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>25.8</v>
-      </c>
-      <c r="AI11" s="9">
-        <v>7</v>
-      </c>
       <c r="AJ11" s="8">
-        <v>0.0044</v>
+        <v>0.0041</v>
       </c>
       <c r="AK11" s="8">
-        <v>0.0039</v>
+        <v>0.0036</v>
       </c>
       <c r="AL11" s="7">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="90">
@@ -3061,112 +3424,112 @@
         <v>48</v>
       </c>
       <c r="C12" s="7">
-        <v>4.94</v>
+        <v>6.07</v>
       </c>
       <c r="D12" s="7">
-        <v>14.98</v>
+        <v>34.36</v>
       </c>
       <c r="E12" s="7">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="F12" s="7">
-        <v>0.82</v>
+        <v>0.38</v>
       </c>
       <c r="G12" s="6">
-        <v>3.03</v>
+        <v>5.66</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0058</v>
+        <v>0.0034</v>
       </c>
       <c r="J12" s="8">
-        <v>0.0035</v>
+        <v>0.006</v>
       </c>
       <c r="K12" s="8">
-        <v>0.0006</v>
+        <v>0.0034</v>
       </c>
       <c r="L12" s="7">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
       <c r="M12" s="6">
-        <v>3.03</v>
+        <v>5.66</v>
       </c>
       <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>1733</v>
+        <v>2646</v>
       </c>
       <c r="P12" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="R12" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
       </c>
       <c r="V12" s="7">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
       <c r="W12" s="9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X12" s="8">
-        <v>0.0035</v>
+        <v>0.0053</v>
       </c>
       <c r="Y12" s="7">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
       <c r="Z12" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA12" s="8">
-        <v>0.0006</v>
+        <v>0.003</v>
       </c>
       <c r="AB12" s="7">
-        <v>4.94</v>
+        <v>0.67</v>
       </c>
       <c r="AC12" s="7">
-        <v>4.94</v>
+        <v>0.76</v>
       </c>
       <c r="AD12" s="7">
-        <v>14.98</v>
+        <v>34.36</v>
       </c>
       <c r="AE12" s="7">
-        <v>14.98</v>
+        <v>34.36</v>
       </c>
       <c r="AF12" s="7">
-        <v>14.98</v>
+        <v>34.36</v>
       </c>
       <c r="AG12" s="6">
-        <v>3.03</v>
+        <v>5.66</v>
       </c>
       <c r="AH12" s="6">
-        <v>3.03</v>
+        <v>5.66</v>
       </c>
       <c r="AI12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="8">
-        <v>0.0006</v>
+        <v>0.0008</v>
       </c>
       <c r="AK12" s="8">
-        <v>0.0006</v>
+        <v>0.0008</v>
       </c>
       <c r="AL12" s="7">
-        <v>4.94</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="90">
@@ -3175,52 +3538,52 @@
         <v>49</v>
       </c>
       <c r="C13" s="7">
-        <v>4.93</v>
+        <v>6.05</v>
       </c>
       <c r="D13" s="7">
-        <v>24.76</v>
+        <v>33.47</v>
       </c>
       <c r="E13" s="7">
-        <v>2.79</v>
+        <v>1.78</v>
       </c>
       <c r="F13" s="7">
-        <v>0.82</v>
+        <v>0.47</v>
       </c>
       <c r="G13" s="6">
-        <v>5.02</v>
+        <v>5.53</v>
       </c>
       <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0074</v>
+        <v>0.0053</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0034</v>
+        <v>0.0038</v>
       </c>
       <c r="K13" s="8">
-        <v>0.0011</v>
+        <v>0.0003</v>
       </c>
       <c r="L13" s="7">
-        <v>2.46</v>
+        <v>3.02</v>
       </c>
       <c r="M13" s="6">
-        <v>5.02</v>
+        <v>5.53</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>1764</v>
+        <v>3401</v>
       </c>
       <c r="P13" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="9">
         <v>13</v>
       </c>
-      <c r="Q13" s="9">
-        <v>6</v>
-      </c>
       <c r="R13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="9">
         <v>2</v>
@@ -3232,55 +3595,55 @@
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="W13" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X13" s="8">
-        <v>0.0034</v>
+        <v>0.0021</v>
       </c>
       <c r="Y13" s="7">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="Z13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="7">
-        <v>2.46</v>
+        <v>6.05</v>
       </c>
       <c r="AC13" s="7">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="7">
-        <v>24.76</v>
+        <v>33.47</v>
       </c>
       <c r="AE13" s="7">
-        <v>24.76</v>
+        <v>33.47</v>
       </c>
       <c r="AF13" s="7">
-        <v>24.76</v>
+        <v>33.47</v>
       </c>
       <c r="AG13" s="6">
-        <v>5.02</v>
+        <v>5.53</v>
       </c>
       <c r="AH13" s="6">
-        <v>5.02</v>
+        <v>5.53</v>
       </c>
       <c r="AI13" s="9">
         <v>2</v>
       </c>
       <c r="AJ13" s="8">
-        <v>0.0011</v>
+        <v>0.0006</v>
       </c>
       <c r="AK13" s="8">
-        <v>0.0011</v>
+        <v>0.0006</v>
       </c>
       <c r="AL13" s="7">
-        <v>2.46</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="90">
@@ -3289,112 +3652,112 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>4.85</v>
+        <v>5.94</v>
       </c>
       <c r="D14" s="7">
-        <v>17.49</v>
+        <v>29.56</v>
       </c>
       <c r="E14" s="7">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="F14" s="7">
-        <v>0.81</v>
+        <v>0.33</v>
       </c>
       <c r="G14" s="6">
-        <v>3.61</v>
+        <v>4.98</v>
       </c>
       <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="I14" s="8">
-        <v>0.0046</v>
+        <v>0.0042</v>
       </c>
       <c r="J14" s="8">
-        <v>0.0021</v>
+        <v>0.0054</v>
       </c>
       <c r="K14" s="8">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="L14" s="7">
-        <v>4.85</v>
+        <v>2.97</v>
       </c>
       <c r="M14" s="6">
-        <v>3.61</v>
+        <v>2.02</v>
       </c>
       <c r="N14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>2806</v>
+        <v>3350</v>
       </c>
       <c r="P14" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="9">
+        <v>18</v>
+      </c>
+      <c r="R14" s="9">
         <v>6</v>
       </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
       <c r="S14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" s="9">
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="W14" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X14" s="8">
-        <v>0.0007</v>
+        <v>0.0045</v>
       </c>
       <c r="Y14" s="7">
-        <v>2.43</v>
+        <v>0.4</v>
       </c>
       <c r="Z14" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="8">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="AB14" s="7">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC14" s="7">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AD14" s="7">
-        <v>17.49</v>
+        <v>11.98</v>
       </c>
       <c r="AE14" s="7">
-        <v>17.49</v>
+        <v>29.56</v>
       </c>
       <c r="AF14" s="7">
-        <v>17.49</v>
+        <v>11.98</v>
       </c>
       <c r="AG14" s="6">
-        <v>3.61</v>
+        <v>4.98</v>
       </c>
       <c r="AH14" s="6">
-        <v>3.61</v>
+        <v>2.02</v>
       </c>
       <c r="AI14" s="9">
         <v>1</v>
       </c>
       <c r="AJ14" s="8">
-        <v>0.0004</v>
+        <v>0.0006</v>
       </c>
       <c r="AK14" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AL14" s="7">
-        <v>4.85</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="90">
@@ -3403,52 +3766,52 @@
         <v>51</v>
       </c>
       <c r="C15" s="7">
-        <v>4.82</v>
+        <v>5.88</v>
       </c>
       <c r="D15" s="7">
-        <v>34.36</v>
+        <v>24.76</v>
       </c>
       <c r="E15" s="7">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="F15" s="7">
-        <v>2.41</v>
+        <v>0.18</v>
       </c>
       <c r="G15" s="6">
-        <v>7.13</v>
+        <v>4.21</v>
       </c>
       <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="8">
-        <v>0.0034</v>
+        <v>0.0064</v>
       </c>
       <c r="J15" s="8">
-        <v>0.001</v>
+        <v>0.0151</v>
       </c>
       <c r="K15" s="8">
-        <v>0.0005</v>
+        <v>0.0018</v>
       </c>
       <c r="L15" s="7">
-        <v>2.41</v>
+        <v>2.94</v>
       </c>
       <c r="M15" s="6">
-        <v>7.13</v>
+        <v>4.21</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>2038</v>
+        <v>2179</v>
       </c>
       <c r="P15" s="9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="9">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="R15" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S15" s="9">
         <v>2</v>
@@ -3460,55 +3823,55 @@
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <v>0.69</v>
+        <v>0.42</v>
       </c>
       <c r="W15" s="9">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="X15" s="8">
-        <v>0.001</v>
+        <v>0.0133</v>
       </c>
       <c r="Y15" s="7">
-        <v>2.41</v>
+        <v>0.2</v>
       </c>
       <c r="Z15" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA15" s="8">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
       <c r="AB15" s="7">
-        <v>4.82</v>
+        <v>1.47</v>
       </c>
       <c r="AC15" s="7">
-        <v>4.82</v>
+        <v>1.96</v>
       </c>
       <c r="AD15" s="7">
-        <v>34.36</v>
+        <v>24.76</v>
       </c>
       <c r="AE15" s="7">
-        <v>34.36</v>
+        <v>24.76</v>
       </c>
       <c r="AF15" s="7">
-        <v>34.36</v>
+        <v>24.76</v>
       </c>
       <c r="AG15" s="6">
-        <v>7.13</v>
+        <v>4.21</v>
       </c>
       <c r="AH15" s="6">
-        <v>7.13</v>
+        <v>4.21</v>
       </c>
       <c r="AI15" s="9">
         <v>2</v>
       </c>
       <c r="AJ15" s="8">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="AK15" s="8">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="AL15" s="7">
-        <v>2.41</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="90">
@@ -3517,112 +3880,112 @@
         <v>52</v>
       </c>
       <c r="C16" s="7">
-        <v>4.79</v>
+        <v>5.76</v>
       </c>
       <c r="D16" s="7">
-        <v>45.54</v>
+        <v>14.98</v>
       </c>
       <c r="E16" s="7">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="F16" s="7">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="G16" s="6">
-        <v>9.51</v>
+        <v>2.6</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0.0041</v>
+        <v>0.0038</v>
       </c>
       <c r="J16" s="8">
-        <v>0.0094</v>
+        <v>0.0174</v>
       </c>
       <c r="K16" s="8">
-        <v>0.0012</v>
+        <v>0.0019</v>
       </c>
       <c r="L16" s="7">
-        <v>1.6</v>
+        <v>5.76</v>
       </c>
       <c r="M16" s="6">
-        <v>6.51</v>
+        <v>2.6</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>1709</v>
+        <v>2124</v>
       </c>
       <c r="P16" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="R16" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16" s="9">
+        <v>1</v>
+      </c>
+      <c r="T16" s="9">
+        <v>1</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="W16" s="9">
+        <v>33</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0.0155</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="Z16" s="9">
         <v>3</v>
       </c>
-      <c r="T16" s="9">
-        <v>3</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="W16" s="9">
-        <v>12</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0.007</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>2</v>
-      </c>
       <c r="AA16" s="8">
-        <v>0.0012</v>
+        <v>0.0014</v>
       </c>
       <c r="AB16" s="7">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="AC16" s="7">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AD16" s="7">
-        <v>31.16</v>
+        <v>14.98</v>
       </c>
       <c r="AE16" s="7">
-        <v>45.54</v>
+        <v>14.98</v>
       </c>
       <c r="AF16" s="7">
-        <v>31.16</v>
+        <v>14.98</v>
       </c>
       <c r="AG16" s="6">
-        <v>9.51</v>
+        <v>2.6</v>
       </c>
       <c r="AH16" s="6">
-        <v>6.51</v>
+        <v>2.6</v>
       </c>
       <c r="AI16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="8">
-        <v>0.0018</v>
+        <v>0.0005</v>
       </c>
       <c r="AK16" s="8">
-        <v>0.0012</v>
+        <v>0.0005</v>
       </c>
       <c r="AL16" s="7">
-        <v>2.4</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="90">
@@ -3631,112 +3994,112 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>4.76</v>
+        <v>5.67</v>
       </c>
       <c r="D17" s="7">
-        <v>29.56</v>
+        <v>15.98</v>
       </c>
       <c r="E17" s="7">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="F17" s="7">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="G17" s="6">
-        <v>6.21</v>
+        <v>2.82</v>
       </c>
       <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0.004</v>
+        <v>0.0044</v>
       </c>
       <c r="J17" s="8">
-        <v>0.0036</v>
+        <v>0.0065</v>
       </c>
       <c r="K17" s="8">
-        <v>0.0007</v>
+        <v>0.0015</v>
       </c>
       <c r="L17" s="7">
-        <v>2.38</v>
+        <v>5.67</v>
       </c>
       <c r="M17" s="6">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="N17" s="8">
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>2766</v>
+        <v>3398</v>
       </c>
       <c r="P17" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="9">
+        <v>22</v>
+      </c>
+      <c r="R17" s="9">
+        <v>5</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1</v>
+      </c>
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="W17" s="9">
         <v>10</v>
       </c>
-      <c r="R17" s="9">
-        <v>2</v>
-      </c>
-      <c r="S17" s="9">
-        <v>2</v>
-      </c>
-      <c r="T17" s="9">
-        <v>2</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="W17" s="9">
-        <v>7</v>
-      </c>
       <c r="X17" s="8">
-        <v>0.0025</v>
+        <v>0.0029</v>
       </c>
       <c r="Y17" s="7">
-        <v>0.68</v>
+        <v>0.57</v>
       </c>
       <c r="Z17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="8">
-        <v>0.0007</v>
+        <v>0.0009</v>
       </c>
       <c r="AB17" s="7">
-        <v>2.38</v>
+        <v>1.13</v>
       </c>
       <c r="AC17" s="7">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="AD17" s="7">
-        <v>11.98</v>
+        <v>15.98</v>
       </c>
       <c r="AE17" s="7">
-        <v>29.56</v>
+        <v>15.98</v>
       </c>
       <c r="AF17" s="7">
-        <v>11.98</v>
+        <v>15.98</v>
       </c>
       <c r="AG17" s="6">
-        <v>6.21</v>
+        <v>2.82</v>
       </c>
       <c r="AH17" s="6">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AI17" s="9">
         <v>1</v>
       </c>
       <c r="AJ17" s="8">
-        <v>0.0007</v>
+        <v>0.0003</v>
       </c>
       <c r="AK17" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AL17" s="7">
-        <v>4.76</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="90">
@@ -3745,112 +4108,112 @@
         <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>4.6</v>
+        <v>5.66</v>
       </c>
       <c r="D18" s="7">
-        <v>15.98</v>
+        <v>45.54</v>
       </c>
       <c r="E18" s="7">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="F18" s="7">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="G18" s="6">
-        <v>3.47</v>
+        <v>8.05</v>
       </c>
       <c r="H18" s="8">
         <v>1</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0036</v>
+        <v>0.0043</v>
       </c>
       <c r="J18" s="8">
-        <v>0.0047</v>
+        <v>0.0237</v>
       </c>
       <c r="K18" s="8">
-        <v>0.0007</v>
+        <v>0.0033</v>
       </c>
       <c r="L18" s="7">
-        <v>4.6</v>
+        <v>1.89</v>
       </c>
       <c r="M18" s="6">
-        <v>3.47</v>
+        <v>5.51</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>2746</v>
+        <v>2111</v>
       </c>
       <c r="P18" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="9">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="R18" s="9">
+        <v>7</v>
+      </c>
+      <c r="S18" s="9">
+        <v>3</v>
+      </c>
+      <c r="T18" s="9">
+        <v>3</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="W18" s="9">
+        <v>40</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.0189</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0.0028</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>31.16</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>45.54</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>31.16</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>8.05</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>5.51</v>
+      </c>
+      <c r="AI18" s="9">
         <v>2</v>
       </c>
-      <c r="S18" s="9">
-        <v>1</v>
-      </c>
-      <c r="T18" s="9">
-        <v>1</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="W18" s="9">
-        <v>4</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0.0015</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>0.0004</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>4.6</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>15.98</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>15.98</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>15.98</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>3.47</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>3.47</v>
-      </c>
-      <c r="AI18" s="9">
-        <v>1</v>
-      </c>
       <c r="AJ18" s="8">
-        <v>0.0004</v>
+        <v>0.0014</v>
       </c>
       <c r="AK18" s="8">
-        <v>0.0004</v>
+        <v>0.0009</v>
       </c>
       <c r="AL18" s="7">
-        <v>4.6</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="90">
@@ -3859,112 +4222,112 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>4.38</v>
+        <v>5.39</v>
       </c>
       <c r="D19" s="7">
-        <v>45.55</v>
+        <v>101.86</v>
       </c>
       <c r="E19" s="7">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F19" s="7">
-        <v>0.16</v>
+        <v>0.07</v>
       </c>
       <c r="G19" s="6">
-        <v>10.4</v>
+        <v>18.9</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>0.9091</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0017</v>
+        <v>0.0014</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0017</v>
+        <v>0.0041</v>
       </c>
       <c r="K19" s="8">
-        <v>0.0001</v>
+        <v>0.0007</v>
       </c>
       <c r="L19" s="7">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="M19" s="6">
-        <v>8.1</v>
+        <v>10.88</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>16134</v>
+        <v>19292</v>
       </c>
       <c r="P19" s="9">
         <v>27</v>
       </c>
       <c r="Q19" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="R19" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S19" s="9">
+        <v>11</v>
+      </c>
+      <c r="T19" s="9">
+        <v>11</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="W19" s="9">
+        <v>47</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.0024</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="Z19" s="9">
         <v>4</v>
       </c>
-      <c r="T19" s="9">
-        <v>4</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="W19" s="9">
-        <v>23</v>
-      </c>
-      <c r="X19" s="8">
-        <v>0.0014</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
       <c r="AA19" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AB19" s="7">
-        <v>2.19</v>
+        <v>0.39</v>
       </c>
       <c r="AC19" s="7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AD19" s="7">
-        <v>35.47</v>
+        <v>58.63</v>
       </c>
       <c r="AE19" s="7">
-        <v>45.55</v>
+        <v>97.07</v>
       </c>
       <c r="AF19" s="7">
-        <v>35.47</v>
+        <v>53.84</v>
       </c>
       <c r="AG19" s="6">
-        <v>10.4</v>
+        <v>18.01</v>
       </c>
       <c r="AH19" s="6">
-        <v>8.1</v>
+        <v>9.99</v>
       </c>
       <c r="AI19" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="8">
-        <v>0.0002</v>
+        <v>0.0006</v>
       </c>
       <c r="AK19" s="8">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="AL19" s="7">
-        <v>2.19</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="90">
@@ -3973,7 +4336,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="7">
-        <v>4.37</v>
+        <v>5.13</v>
       </c>
       <c r="D20" s="7">
         <v>52.74</v>
@@ -3982,43 +4345,43 @@
         <v>0.39</v>
       </c>
       <c r="F20" s="7">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="6">
-        <v>12.07</v>
+        <v>10.28</v>
       </c>
       <c r="H20" s="8">
         <v>0.6</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0015</v>
+        <v>0.0018</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0017</v>
+        <v>0.004</v>
       </c>
       <c r="K20" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L20" s="7">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="M20" s="6">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>11284</v>
+        <v>13096</v>
       </c>
       <c r="P20" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="R20" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S20" s="9">
         <v>5</v>
@@ -4030,28 +4393,28 @@
         <v>0</v>
       </c>
       <c r="V20" s="7">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="W20" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="X20" s="8">
-        <v>0.0016</v>
+        <v>0.003</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="Z20" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA20" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB20" s="7">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AC20" s="7">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AD20" s="7">
         <v>11.98</v>
@@ -4063,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="6">
-        <v>8.23</v>
+        <v>7.01</v>
       </c>
       <c r="AH20" s="6">
         <v>0</v>
@@ -4078,7 +4441,7 @@
         <v>0.0001</v>
       </c>
       <c r="AL20" s="7">
-        <v>4.37</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="21" spans="1:38" customHeight="1" ht="90">
@@ -4087,112 +4450,112 @@
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>4.26</v>
+        <v>5.1</v>
       </c>
       <c r="D21" s="7">
-        <v>66.62</v>
+        <v>40.35</v>
       </c>
       <c r="E21" s="7">
         <v>0.39</v>
       </c>
       <c r="F21" s="7">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G21" s="6">
-        <v>15.64</v>
+        <v>7.91</v>
       </c>
       <c r="H21" s="8">
         <v>1</v>
       </c>
       <c r="I21" s="8">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
       <c r="J21" s="8">
-        <v>0.0019</v>
+        <v>0.0034</v>
       </c>
       <c r="K21" s="8">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="L21" s="7">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="M21" s="6">
-        <v>11.42</v>
+        <v>7.91</v>
       </c>
       <c r="N21" s="8">
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>11029</v>
+        <v>13166</v>
       </c>
       <c r="P21" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="R21" s="9">
+        <v>6</v>
+      </c>
+      <c r="S21" s="9">
         <v>3</v>
       </c>
-      <c r="S21" s="9">
-        <v>5</v>
-      </c>
       <c r="T21" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
       </c>
       <c r="V21" s="7">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="W21" s="9">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="X21" s="8">
-        <v>0.0014</v>
+        <v>0.0027</v>
       </c>
       <c r="Y21" s="7">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="Z21" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA21" s="8">
         <v>0.0003</v>
       </c>
       <c r="AB21" s="7">
-        <v>1.42</v>
+        <v>0.85</v>
       </c>
       <c r="AC21" s="7">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AD21" s="7">
-        <v>48.65</v>
+        <v>40.35</v>
       </c>
       <c r="AE21" s="7">
-        <v>66.62</v>
+        <v>40.35</v>
       </c>
       <c r="AF21" s="7">
-        <v>48.65</v>
+        <v>40.35</v>
       </c>
       <c r="AG21" s="6">
-        <v>15.64</v>
+        <v>7.91</v>
       </c>
       <c r="AH21" s="6">
-        <v>11.42</v>
+        <v>7.91</v>
       </c>
       <c r="AI21" s="9">
         <v>3</v>
       </c>
       <c r="AJ21" s="8">
-        <v>0.0005</v>
+        <v>0.0002</v>
       </c>
       <c r="AK21" s="8">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="AL21" s="7">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22" spans="1:38" customHeight="1" ht="90">
@@ -4201,112 +4564,112 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>4.23</v>
+        <v>5.06</v>
       </c>
       <c r="D22" s="7">
-        <v>27.96</v>
+        <v>66.62</v>
       </c>
       <c r="E22" s="7">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F22" s="7">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="G22" s="6">
-        <v>6.61</v>
+        <v>13.17</v>
       </c>
       <c r="H22" s="8">
         <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0021</v>
+        <v>0.0019</v>
       </c>
       <c r="J22" s="8">
-        <v>0.0008</v>
+        <v>0.0043</v>
       </c>
       <c r="K22" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L22" s="7">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M22" s="6">
-        <v>0</v>
+        <v>9.61</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>11200</v>
+        <v>12839</v>
       </c>
       <c r="P22" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="9">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="R22" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S22" s="9">
+        <v>5</v>
+      </c>
+      <c r="T22" s="9">
+        <v>5</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="W22" s="9">
+        <v>42</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0.0033</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="Z22" s="9">
         <v>3</v>
       </c>
-      <c r="T22" s="9">
+      <c r="AA22" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>48.65</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>66.62</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>48.65</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>13.17</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>9.61</v>
+      </c>
+      <c r="AI22" s="9">
         <v>3</v>
       </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="W22" s="9">
-        <v>9</v>
-      </c>
-      <c r="X22" s="8">
-        <v>0.0008</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="7">
-        <v>27.96</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="6">
-        <v>6.61</v>
-      </c>
-      <c r="AH22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="9">
-        <v>0</v>
-      </c>
       <c r="AJ22" s="8">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="AK22" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AL22" s="7">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="23" spans="1:38" customHeight="1" ht="90">
@@ -4315,73 +4678,73 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>4.21</v>
+        <v>5.03</v>
       </c>
       <c r="D23" s="7">
-        <v>34.36</v>
+        <v>57.55</v>
       </c>
       <c r="E23" s="7">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F23" s="7">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G23" s="6">
-        <v>8.16</v>
+        <v>11.44</v>
       </c>
       <c r="H23" s="8">
         <v>1</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0022</v>
+        <v>0.0015</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0023</v>
+        <v>0.0034</v>
       </c>
       <c r="K23" s="8">
-        <v>0.0001</v>
+        <v>0.0007</v>
       </c>
       <c r="L23" s="7">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="M23" s="6">
-        <v>8.16</v>
+        <v>3.18</v>
       </c>
       <c r="N23" s="8">
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>11205</v>
+        <v>12795</v>
       </c>
       <c r="P23" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>44</v>
+      </c>
+      <c r="R23" s="9">
+        <v>9</v>
+      </c>
+      <c r="S23" s="9">
+        <v>4</v>
+      </c>
+      <c r="T23" s="9">
+        <v>9</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W23" s="9">
         <v>25</v>
       </c>
-      <c r="Q23" s="9">
-        <v>26</v>
-      </c>
-      <c r="R23" s="9">
-        <v>1</v>
-      </c>
-      <c r="S23" s="9">
-        <v>2</v>
-      </c>
-      <c r="T23" s="9">
-        <v>2</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="W23" s="9">
-        <v>20</v>
-      </c>
       <c r="X23" s="8">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="Y23" s="7">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="Z23" s="9">
         <v>1</v>
@@ -4390,37 +4753,37 @@
         <v>0.0001</v>
       </c>
       <c r="AB23" s="7">
-        <v>4.21</v>
+        <v>0.56</v>
       </c>
       <c r="AC23" s="7">
-        <v>4.21</v>
+        <v>5.03</v>
       </c>
       <c r="AD23" s="7">
-        <v>34.36</v>
+        <v>15.98</v>
       </c>
       <c r="AE23" s="7">
-        <v>34.36</v>
+        <v>57.55</v>
       </c>
       <c r="AF23" s="7">
-        <v>34.36</v>
+        <v>15.98</v>
       </c>
       <c r="AG23" s="6">
-        <v>8.16</v>
+        <v>11.44</v>
       </c>
       <c r="AH23" s="6">
-        <v>8.16</v>
+        <v>3.18</v>
       </c>
       <c r="AI23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="AK23" s="8">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="AL23" s="7">
-        <v>2.1</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="24" spans="1:38" customHeight="1" ht="90">
@@ -4429,112 +4792,112 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>4.16</v>
+        <v>4.97</v>
       </c>
       <c r="D24" s="7">
-        <v>57.55</v>
+        <v>42.95</v>
       </c>
       <c r="E24" s="7">
         <v>0.38</v>
       </c>
       <c r="F24" s="7">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="G24" s="6">
-        <v>13.83</v>
+        <v>8.64</v>
       </c>
       <c r="H24" s="8">
         <v>1</v>
       </c>
       <c r="I24" s="8">
-        <v>0.0015</v>
+        <v>0.0019</v>
       </c>
       <c r="J24" s="8">
-        <v>0.0017</v>
+        <v>0.0022</v>
       </c>
       <c r="K24" s="8">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="L24" s="7">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="M24" s="6">
-        <v>3.84</v>
+        <v>3.02</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>10975</v>
+        <v>12918</v>
       </c>
       <c r="P24" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R24" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S24" s="9">
         <v>4</v>
       </c>
       <c r="T24" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
       </c>
       <c r="V24" s="7">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="W24" s="9">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="X24" s="8">
-        <v>0.0009</v>
+        <v>0.0019</v>
       </c>
       <c r="Y24" s="7">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="Z24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB24" s="7">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="AC24" s="7">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="AD24" s="7">
-        <v>15.98</v>
+        <v>14.99</v>
       </c>
       <c r="AE24" s="7">
-        <v>57.55</v>
+        <v>42.95</v>
       </c>
       <c r="AF24" s="7">
-        <v>15.98</v>
+        <v>14.99</v>
       </c>
       <c r="AG24" s="6">
-        <v>13.83</v>
+        <v>8.64</v>
       </c>
       <c r="AH24" s="6">
-        <v>3.84</v>
+        <v>3.02</v>
       </c>
       <c r="AI24" s="9">
         <v>1</v>
       </c>
       <c r="AJ24" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AK24" s="8">
         <v>0.0001</v>
       </c>
       <c r="AL24" s="7">
-        <v>4.16</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="25" spans="1:38" customHeight="1" ht="90">
@@ -4543,52 +4906,52 @@
         <v>61</v>
       </c>
       <c r="C25" s="7">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="D25" s="7">
         <v>33.96</v>
       </c>
       <c r="E25" s="7">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F25" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G25" s="6">
-        <v>29.79</v>
+        <v>23.1</v>
       </c>
       <c r="H25" s="8">
         <v>0.5</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0036</v>
+        <v>0.0033</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0022</v>
+        <v>0.0051</v>
       </c>
       <c r="K25" s="8">
-        <v>0.0004</v>
+        <v>0.0009</v>
       </c>
       <c r="L25" s="7">
-        <v>0.57</v>
+        <v>0.74</v>
       </c>
       <c r="M25" s="6">
-        <v>17.53</v>
+        <v>13.59</v>
       </c>
       <c r="N25" s="8">
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>4948</v>
+        <v>5702</v>
       </c>
       <c r="P25" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R25" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S25" s="9">
         <v>2</v>
@@ -4600,28 +4963,28 @@
         <v>0</v>
       </c>
       <c r="V25" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="W25" s="9">
+        <v>23</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="Y25" s="7">
         <v>0.06</v>
       </c>
-      <c r="W25" s="9">
-        <v>9</v>
-      </c>
-      <c r="X25" s="8">
-        <v>0.0018</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>0.13</v>
-      </c>
       <c r="Z25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AB25" s="7">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="AC25" s="7">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AD25" s="7">
         <v>19.98</v>
@@ -4633,10 +4996,10 @@
         <v>19.98</v>
       </c>
       <c r="AG25" s="6">
-        <v>17.53</v>
+        <v>13.59</v>
       </c>
       <c r="AH25" s="6">
-        <v>17.53</v>
+        <v>13.59</v>
       </c>
       <c r="AI25" s="9">
         <v>1</v>
@@ -4648,7 +5011,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL25" s="7">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="26" spans="1:38" customHeight="1" ht="90">
@@ -4699,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -4813,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" s="9">
         <v>1</v>
@@ -4831,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="8">
         <v>0</v>
@@ -4840,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="8">
         <v>0</v>
@@ -4930,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="9">
         <v>0</v>
@@ -4945,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="8">
         <v>0</v>
@@ -5002,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
@@ -5014,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8">
         <v>0</v>
@@ -5041,16 +5404,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -5059,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X29" s="8">
         <v>0</v>
@@ -5080,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="AD29" s="7">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="AE29" s="7">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="AF29" s="7">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="AG29" s="6">
         <v>0</v>
@@ -5095,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ29" s="8">
         <v>0</v>
@@ -5116,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
@@ -5128,53 +5491,53 @@
         <v>0</v>
       </c>
       <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
         <v>1</v>
       </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0</v>
-      </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0</v>
-      </c>
-      <c r="P30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0</v>
-      </c>
       <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
         <v>1</v>
       </c>
-      <c r="S30" s="9">
-        <v>1</v>
-      </c>
-      <c r="T30" s="9">
-        <v>2</v>
-      </c>
-      <c r="U30" s="9">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
-        <v>0</v>
-      </c>
-      <c r="W30" s="9">
-        <v>0</v>
-      </c>
       <c r="X30" s="8">
         <v>0</v>
       </c>
@@ -5182,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="8">
         <v>0</v>
@@ -5197,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="7">
         <v>0</v>
@@ -5269,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="Q31" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="9">
         <v>0</v>
@@ -5287,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" s="8">
         <v>0</v>
@@ -5296,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="8">
         <v>0</v>
@@ -5383,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
@@ -5401,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X32" s="8">
         <v>0</v>
@@ -5458,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>41.93</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -5470,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
@@ -5497,16 +5860,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R33" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S33" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T33" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U33" s="9">
         <v>0</v>
@@ -5515,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X33" s="8">
         <v>0</v>
@@ -5524,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="8">
         <v>0</v>
@@ -5536,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="AD33" s="7">
-        <v>0</v>
+        <v>21.96</v>
       </c>
       <c r="AE33" s="7">
-        <v>0</v>
+        <v>41.93</v>
       </c>
       <c r="AF33" s="7">
-        <v>0</v>
+        <v>21.96</v>
       </c>
       <c r="AG33" s="6">
         <v>0</v>
@@ -5551,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ33" s="8">
         <v>0</v>
@@ -5572,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>36.36</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -5584,43 +5947,43 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
         <v>1</v>
       </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
       <c r="R34" s="9">
         <v>0</v>
       </c>
       <c r="S34" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -5629,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="8">
         <v>0</v>
@@ -5650,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="AD34" s="7">
-        <v>36.36</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="7">
-        <v>36.36</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="7">
-        <v>36.36</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="6">
         <v>0</v>
@@ -5665,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="8">
         <v>0</v>
@@ -5686,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>41.93</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -5698,43 +6061,43 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>15</v>
-      </c>
       <c r="R35" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S35" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T35" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U35" s="9">
         <v>0</v>
@@ -5743,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X35" s="8">
         <v>0</v>
@@ -5764,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="7">
-        <v>21.96</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="7">
-        <v>41.93</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="7">
-        <v>21.96</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="6">
         <v>0</v>
@@ -5779,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="8">
         <v>0</v>
@@ -5839,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R36" s="9">
         <v>0</v>
@@ -5857,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36" s="8">
         <v>0</v>
@@ -5914,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>18.38</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -5926,62 +6289,62 @@
         <v>0</v>
       </c>
       <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>19</v>
+      </c>
+      <c r="R37" s="9">
         <v>1</v>
       </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-      <c r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>0</v>
-      </c>
-      <c r="R37" s="9">
-        <v>0</v>
-      </c>
       <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>19</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
         <v>1</v>
       </c>
-      <c r="T37" s="9">
-        <v>1</v>
-      </c>
-      <c r="U37" s="9">
-        <v>0</v>
-      </c>
-      <c r="V37" s="7">
-        <v>0</v>
-      </c>
-      <c r="W37" s="9">
-        <v>0</v>
-      </c>
-      <c r="X37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>0</v>
-      </c>
       <c r="AA37" s="8">
         <v>0</v>
       </c>
@@ -5992,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="AD37" s="7">
-        <v>18.38</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="7">
-        <v>18.38</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="7">
-        <v>18.38</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="6">
         <v>0</v>
@@ -6007,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="8">
         <v>0</v>
@@ -6025,112 +6388,1366 @@
         <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>116.78</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>1088.35</v>
+        <v>18.38</v>
       </c>
       <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>1</v>
+      </c>
+      <c r="T38" s="9">
+        <v>1</v>
+      </c>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>18.38</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>18.38</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>18.38</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" customHeight="1" ht="90">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>3</v>
+      </c>
+      <c r="R39" s="9">
+        <v>1</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
+        <v>0</v>
+      </c>
+      <c r="U39" s="9">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="9">
+        <v>3</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" customHeight="1" ht="90">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>6</v>
+      </c>
+      <c r="R40" s="9">
+        <v>3</v>
+      </c>
+      <c r="S40" s="9">
+        <v>1</v>
+      </c>
+      <c r="T40" s="9">
+        <v>2</v>
+      </c>
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" customHeight="1" ht="90">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" customHeight="1" ht="90">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>1</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42" s="9">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <v>0</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" customHeight="1" ht="90">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>37.23</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>5</v>
+      </c>
+      <c r="T43" s="9">
+        <v>5</v>
+      </c>
+      <c r="U43" s="9">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>15.46</v>
+      </c>
+      <c r="AE43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" customHeight="1" ht="90">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>2</v>
+      </c>
+      <c r="R44" s="9">
+        <v>1</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44" s="9">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>1</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" customHeight="1" ht="90">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>4</v>
+      </c>
+      <c r="R45" s="9">
+        <v>1</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+      <c r="U45" s="9">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <v>4</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" customHeight="1" ht="90">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>3</v>
+      </c>
+      <c r="R46" s="9">
+        <v>1</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
+      <c r="U46" s="9">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <v>1</v>
+      </c>
+      <c r="X46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" customHeight="1" ht="90">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9">
+        <v>2</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>0</v>
+      </c>
+      <c r="U47" s="9">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <v>0</v>
+      </c>
+      <c r="X47" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" customHeight="1" ht="90">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+      <c r="P48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>11</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
+      <c r="U48" s="9">
+        <v>0</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>5</v>
+      </c>
+      <c r="X48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" customHeight="1" ht="90">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7">
+        <v>142.99</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1403.41</v>
+      </c>
+      <c r="E49" s="7">
         <v>0.8</v>
       </c>
-      <c r="F38" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="G38" s="6">
-        <v>9.32</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.9333</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0.0025</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.0028</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0.0003</v>
-      </c>
-      <c r="L38" s="7">
-        <v>1.56</v>
-      </c>
-      <c r="M38" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>145605</v>
-      </c>
-      <c r="P38" s="9">
-        <v>359</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>412</v>
-      </c>
-      <c r="R38" s="9">
-        <v>40</v>
-      </c>
-      <c r="S38" s="9">
-        <v>75</v>
-      </c>
-      <c r="T38" s="9">
-        <v>84</v>
-      </c>
-      <c r="U38" s="9">
-        <v>1</v>
-      </c>
-      <c r="V38" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="W38" s="9">
-        <v>255</v>
-      </c>
-      <c r="X38" s="8">
-        <v>0.0018</v>
-      </c>
-      <c r="Y38" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>24</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="AB38" s="7">
-        <v>2.92</v>
-      </c>
-      <c r="AC38" s="7">
-        <v>4.87</v>
-      </c>
-      <c r="AD38" s="7">
-        <v>794.39</v>
-      </c>
-      <c r="AE38" s="7">
-        <v>1021.64</v>
-      </c>
-      <c r="AF38" s="7">
-        <v>746.45</v>
-      </c>
-      <c r="AG38" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="AH38" s="6">
-        <v>6.39</v>
-      </c>
-      <c r="AI38" s="9">
-        <v>48</v>
-      </c>
-      <c r="AJ38" s="8">
-        <v>0.0005</v>
-      </c>
-      <c r="AK38" s="8">
-        <v>0.0003</v>
-      </c>
-      <c r="AL38" s="7">
-        <v>2.43</v>
+      <c r="F49" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G49" s="6">
+        <v>9.81</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.8932</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.0024</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0.0064</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="L49" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="M49" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9">
+        <v>178195</v>
+      </c>
+      <c r="P49" s="9">
+        <v>421</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>1144</v>
+      </c>
+      <c r="R49" s="9">
+        <v>182</v>
+      </c>
+      <c r="S49" s="9">
+        <v>103</v>
+      </c>
+      <c r="T49" s="9">
+        <v>112</v>
+      </c>
+      <c r="U49" s="9">
+        <v>2</v>
+      </c>
+      <c r="V49" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="W49" s="9">
+        <v>737</v>
+      </c>
+      <c r="X49" s="8">
+        <v>0.0041</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>0.0006</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="AD49" s="7">
+        <v>1026.37</v>
+      </c>
+      <c r="AE49" s="7">
+        <v>1294.68</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>958.18</v>
+      </c>
+      <c r="AG49" s="6">
+        <v>9.05</v>
+      </c>
+      <c r="AH49" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="AI49" s="9">
+        <v>66</v>
+      </c>
+      <c r="AJ49" s="8">
+        <v>0.0006</v>
+      </c>
+      <c r="AK49" s="8">
+        <v>0.0004</v>
+      </c>
+      <c r="AL49" s="7">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>
